--- a/Paolo/FINAL/Bases Finales/Info_2024.xlsx
+++ b/Paolo/FINAL/Bases Finales/Info_2024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAPTOP ACER\REPOSITORIO_GITHUB\OEFA_SMER\Paolo\Scripts\Factores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAPTOP ACER\REPOSITORIO_GITHUB\OEFA_SMER\Paolo\Final\Bases Finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06A5B27-5F51-41D8-9A89-63D36A92F6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B837F87D-0E28-430D-8D23-345A2B17F35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Base!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Consolidado!$A$1:$T$396</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Consolidado!$A$1:$U$396</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Graduación!$A$1:$G$557</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Nuevas!$A$1:$D$98</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$C$98</definedName>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4418" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4419" uniqueCount="792">
   <si>
     <t>Correlativo</t>
   </si>
@@ -5520,11 +5520,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T396"/>
+  <dimension ref="A1:U396"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T82" sqref="T82"/>
+      <selection pane="bottomLeft" activeCell="U1" sqref="U1:U396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5544,9 +5544,10 @@
     <col min="17" max="17" width="15" customWidth="1"/>
     <col min="18" max="18" width="14.6328125" customWidth="1"/>
     <col min="20" max="20" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.90625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -5607,8 +5608,11 @@
       <c r="T1" s="12" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U1" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -5663,8 +5667,11 @@
       <c r="T2" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U2" s="6">
+        <v>16390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -5723,8 +5730,11 @@
       <c r="T3" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U3" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -5783,8 +5793,11 @@
       <c r="T4" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U4" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -5843,8 +5856,11 @@
       <c r="T5" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U5" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -5903,8 +5919,11 @@
       <c r="T6" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U6" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -5963,8 +5982,11 @@
       <c r="T7" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U7" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>2</v>
       </c>
@@ -6023,8 +6045,11 @@
       <c r="T8" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U8" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="9">
         <v>2</v>
       </c>
@@ -6083,8 +6108,11 @@
       <c r="T9" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U9" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="9">
         <v>2</v>
       </c>
@@ -6143,8 +6171,11 @@
       <c r="T10" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U10" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>2</v>
       </c>
@@ -6203,8 +6234,11 @@
       <c r="T11" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U11" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="9">
         <v>2</v>
       </c>
@@ -6263,8 +6297,11 @@
       <c r="T12" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U12" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>2</v>
       </c>
@@ -6323,8 +6360,11 @@
       <c r="T13" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U13" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="9">
         <v>2</v>
       </c>
@@ -6383,8 +6423,11 @@
       <c r="T14" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U14" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="9">
         <v>2</v>
       </c>
@@ -6443,8 +6486,11 @@
       <c r="T15" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U15" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
         <v>2</v>
       </c>
@@ -6503,8 +6549,11 @@
       <c r="T16" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U16" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
         <v>3</v>
       </c>
@@ -6559,8 +6608,11 @@
       <c r="T17" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U17" s="6">
+        <v>30080</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
         <v>3</v>
       </c>
@@ -6615,8 +6667,11 @@
       <c r="T18" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U18" s="6">
+        <v>30081</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
         <v>3</v>
       </c>
@@ -6671,8 +6726,11 @@
       <c r="T19" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U19" s="6">
+        <v>30082</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="9">
         <v>3</v>
       </c>
@@ -6727,8 +6785,11 @@
       <c r="T20" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U20" s="6">
+        <v>30083</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="9">
         <v>4</v>
       </c>
@@ -6783,8 +6844,11 @@
       <c r="T21" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U21" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="9">
         <v>4</v>
       </c>
@@ -6839,8 +6903,11 @@
       <c r="T22" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U22" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
         <v>4</v>
       </c>
@@ -6895,8 +6962,11 @@
       <c r="T23" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U23" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="9">
         <v>4</v>
       </c>
@@ -6951,8 +7021,11 @@
       <c r="T24" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U24" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>4</v>
       </c>
@@ -7007,8 +7080,11 @@
       <c r="T25" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U25" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
         <v>4</v>
       </c>
@@ -7063,8 +7139,11 @@
       <c r="T26" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U26" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <v>4</v>
       </c>
@@ -7119,8 +7198,11 @@
       <c r="T27" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U27" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="9">
         <v>4</v>
       </c>
@@ -7175,8 +7257,11 @@
       <c r="T28" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U28" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="9">
         <v>4</v>
       </c>
@@ -7231,8 +7316,11 @@
       <c r="T29" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U29" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="9">
         <v>4</v>
       </c>
@@ -7287,8 +7375,11 @@
       <c r="T30" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U30" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="9">
         <v>4</v>
       </c>
@@ -7343,8 +7434,11 @@
       <c r="T31" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U31" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="9">
         <v>4</v>
       </c>
@@ -7399,8 +7493,11 @@
       <c r="T32" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U32" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
         <v>4</v>
       </c>
@@ -7455,8 +7552,11 @@
       <c r="T33" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U33" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" s="9">
         <v>4</v>
       </c>
@@ -7511,8 +7611,11 @@
       <c r="T34" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U34" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" s="9">
         <v>4</v>
       </c>
@@ -7567,8 +7670,11 @@
       <c r="T35" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U35" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" s="9">
         <v>4</v>
       </c>
@@ -7623,8 +7729,11 @@
       <c r="T36" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U36" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37" s="9">
         <v>5</v>
       </c>
@@ -7679,8 +7788,11 @@
       <c r="T37" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U37" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38" s="9">
         <v>5</v>
       </c>
@@ -7735,8 +7847,11 @@
       <c r="T38" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U38" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39" s="9">
         <v>5</v>
       </c>
@@ -7791,8 +7906,11 @@
       <c r="T39" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U39" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40" s="9">
         <v>5</v>
       </c>
@@ -7847,8 +7965,11 @@
       <c r="T40" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U40" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41" s="9">
         <v>5</v>
       </c>
@@ -7903,8 +8024,11 @@
       <c r="T41" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U41" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42" s="9">
         <v>5</v>
       </c>
@@ -7959,8 +8083,11 @@
       <c r="T42" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U42" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43" s="9">
         <v>5</v>
       </c>
@@ -8015,8 +8142,11 @@
       <c r="T43" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U43" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44" s="9">
         <v>5</v>
       </c>
@@ -8071,8 +8201,11 @@
       <c r="T44" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U44" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45" s="9">
         <v>5</v>
       </c>
@@ -8127,8 +8260,11 @@
       <c r="T45" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U45" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46" s="9">
         <v>5</v>
       </c>
@@ -8183,8 +8319,11 @@
       <c r="T46" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U46" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47" s="9">
         <v>5</v>
       </c>
@@ -8239,8 +8378,11 @@
       <c r="T47" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U47" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48" s="9">
         <v>6</v>
       </c>
@@ -8295,8 +8437,11 @@
       <c r="T48" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U48" s="6">
+        <v>29500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" s="9">
         <v>6</v>
       </c>
@@ -8351,8 +8496,11 @@
       <c r="T49" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U49" s="6">
+        <v>29501</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" s="9">
         <v>6</v>
       </c>
@@ -8407,8 +8555,11 @@
       <c r="T50" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U50" s="6">
+        <v>29502</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51" s="9">
         <v>7</v>
       </c>
@@ -8463,8 +8614,11 @@
       <c r="T51" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U51" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52" s="9">
         <v>7</v>
       </c>
@@ -8519,8 +8673,11 @@
       <c r="T52" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53" s="9">
         <v>7</v>
       </c>
@@ -8575,8 +8732,11 @@
       <c r="T53" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U53" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" s="9">
         <v>7</v>
       </c>
@@ -8631,8 +8791,11 @@
       <c r="T54" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U54" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55" s="9">
         <v>7</v>
       </c>
@@ -8687,8 +8850,11 @@
       <c r="T55" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U55" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56" s="9">
         <v>7</v>
       </c>
@@ -8743,8 +8909,11 @@
       <c r="T56" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U56" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57" s="9">
         <v>7</v>
       </c>
@@ -8799,8 +8968,11 @@
       <c r="T57" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U57" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58" s="9">
         <v>7</v>
       </c>
@@ -8855,8 +9027,11 @@
       <c r="T58" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U58" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59" s="9">
         <v>7</v>
       </c>
@@ -8911,8 +9086,11 @@
       <c r="T59" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U59" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60" s="9">
         <v>8</v>
       </c>
@@ -8967,8 +9145,11 @@
       <c r="T60" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U60" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61" s="9">
         <v>9</v>
       </c>
@@ -9023,8 +9204,11 @@
       <c r="T61" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U61" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62" s="9">
         <v>9</v>
       </c>
@@ -9079,8 +9263,11 @@
       <c r="T62" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U62" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63" s="9">
         <v>9</v>
       </c>
@@ -9135,8 +9322,11 @@
       <c r="T63" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U63" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64" s="9">
         <v>10</v>
       </c>
@@ -9189,8 +9379,11 @@
       <c r="T64" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U64" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65" s="9">
         <v>10</v>
       </c>
@@ -9243,8 +9436,11 @@
       <c r="T65" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U65" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66" s="9">
         <v>10</v>
       </c>
@@ -9297,8 +9493,11 @@
       <c r="T66" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U66" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67" s="9">
         <v>10</v>
       </c>
@@ -9351,8 +9550,11 @@
       <c r="T67" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U67" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68" s="9">
         <v>10</v>
       </c>
@@ -9405,8 +9607,11 @@
       <c r="T68" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U68" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69" s="9">
         <v>10</v>
       </c>
@@ -9459,8 +9664,11 @@
       <c r="T69" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U69" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70" s="9">
         <v>10</v>
       </c>
@@ -9513,8 +9721,11 @@
       <c r="T70" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U70" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71" s="9">
         <v>11</v>
       </c>
@@ -9567,8 +9778,11 @@
       <c r="T71" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U71" s="6">
+        <v>29226</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72" s="9">
         <v>11</v>
       </c>
@@ -9625,8 +9839,11 @@
       <c r="T72" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U72" s="6">
+        <v>29227</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A73" s="9">
         <v>11</v>
       </c>
@@ -9683,8 +9900,11 @@
       <c r="T73" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U73" s="6">
+        <v>29227</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A74" s="9">
         <v>11</v>
       </c>
@@ -9737,8 +9957,11 @@
       <c r="T74" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U74" s="6">
+        <v>29228</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75" s="9">
         <v>12</v>
       </c>
@@ -9767,8 +9990,11 @@
       <c r="T75" s="3" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U75" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76" s="9">
         <v>13</v>
       </c>
@@ -9827,8 +10053,11 @@
       <c r="T76" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U76" s="6">
+        <v>29529</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77" s="9">
         <v>13</v>
       </c>
@@ -9887,8 +10116,11 @@
       <c r="T77" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U77" s="6">
+        <v>29529</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A78" s="9">
         <v>13</v>
       </c>
@@ -9947,8 +10179,11 @@
       <c r="T78" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U78" s="6">
+        <v>29529</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A79" s="9">
         <v>13</v>
       </c>
@@ -10007,8 +10242,11 @@
       <c r="T79" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U79" s="6">
+        <v>29530</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A80" s="9">
         <v>13</v>
       </c>
@@ -10067,8 +10305,11 @@
       <c r="T80" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U80" s="6">
+        <v>29530</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81" s="9">
         <v>13</v>
       </c>
@@ -10127,8 +10368,11 @@
       <c r="T81" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U81" s="6">
+        <v>29531</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" s="9">
         <v>13</v>
       </c>
@@ -10187,8 +10431,11 @@
       <c r="T82" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U82" s="6">
+        <v>29531</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" s="9">
         <v>13</v>
       </c>
@@ -10247,8 +10494,11 @@
       <c r="T83" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U83" s="6">
+        <v>29531</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" s="9">
         <v>13</v>
       </c>
@@ -10307,8 +10557,11 @@
       <c r="T84" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U84" s="6">
+        <v>29531</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" s="9">
         <v>13</v>
       </c>
@@ -10367,8 +10620,11 @@
       <c r="T85" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U85" s="6">
+        <v>29531</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86" s="9">
         <v>13</v>
       </c>
@@ -10427,8 +10683,11 @@
       <c r="T86" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U86" s="6">
+        <v>29531</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87" s="9">
         <v>13</v>
       </c>
@@ -10487,8 +10746,11 @@
       <c r="T87" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U87" s="6">
+        <v>29531</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88" s="9">
         <v>13</v>
       </c>
@@ -10543,8 +10805,11 @@
       <c r="T88" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U88" s="6">
+        <v>29532</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89" s="9">
         <v>14</v>
       </c>
@@ -10599,8 +10864,11 @@
       <c r="T89" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U89" s="6">
+        <v>30191</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90" s="9">
         <v>14</v>
       </c>
@@ -10655,8 +10923,11 @@
       <c r="T90" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U90" s="6">
+        <v>30192</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91" s="9">
         <v>14</v>
       </c>
@@ -10711,8 +10982,11 @@
       <c r="T91" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U91" s="6">
+        <v>30193</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92" s="9">
         <v>14</v>
       </c>
@@ -10767,8 +11041,11 @@
       <c r="T92" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U92" s="6">
+        <v>30194</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93" s="9">
         <v>14</v>
       </c>
@@ -10823,8 +11100,11 @@
       <c r="T93" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U93" s="6">
+        <v>30195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94" s="9">
         <v>14</v>
       </c>
@@ -10879,8 +11159,11 @@
       <c r="T94" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U94" s="6">
+        <v>30196</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95" s="9">
         <v>14</v>
       </c>
@@ -10935,8 +11218,11 @@
       <c r="T95" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U95" s="6">
+        <v>30197</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96" s="9">
         <v>14</v>
       </c>
@@ -10991,8 +11277,11 @@
       <c r="T96" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U96" s="6">
+        <v>30198</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A97" s="9">
         <v>14</v>
       </c>
@@ -11047,8 +11336,11 @@
       <c r="T97" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U97" s="6">
+        <v>30199</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A98" s="9">
         <v>14</v>
       </c>
@@ -11103,8 +11395,11 @@
       <c r="T98" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U98" s="6">
+        <v>30200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A99" s="9">
         <v>14</v>
       </c>
@@ -11159,8 +11454,11 @@
       <c r="T99" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U99" s="6">
+        <v>30201</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A100" s="9">
         <v>14</v>
       </c>
@@ -11215,8 +11513,11 @@
       <c r="T100" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U100" s="6">
+        <v>30202</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A101" s="9">
         <v>14</v>
       </c>
@@ -11271,8 +11572,11 @@
       <c r="T101" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U101" s="6">
+        <v>30203</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A102" s="9">
         <v>14</v>
       </c>
@@ -11327,8 +11631,11 @@
       <c r="T102" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U102" s="6">
+        <v>30204</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A103" s="9">
         <v>14</v>
       </c>
@@ -11383,8 +11690,11 @@
       <c r="T103" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U103" s="6">
+        <v>30205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A104" s="9">
         <v>14</v>
       </c>
@@ -11439,8 +11749,11 @@
       <c r="T104" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U104" s="6">
+        <v>30206</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A105" s="9">
         <v>14</v>
       </c>
@@ -11495,8 +11808,11 @@
       <c r="T105" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U105" s="6">
+        <v>30207</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A106" s="9">
         <v>14</v>
       </c>
@@ -11551,8 +11867,11 @@
       <c r="T106" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U106" s="6">
+        <v>30208</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A107" s="9">
         <v>14</v>
       </c>
@@ -11607,8 +11926,11 @@
       <c r="T107" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U107" s="6">
+        <v>30209</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A108" s="9">
         <v>14</v>
       </c>
@@ -11663,8 +11985,11 @@
       <c r="T108" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U108" s="6">
+        <v>30210</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A109" s="9">
         <v>14</v>
       </c>
@@ -11719,8 +12044,11 @@
       <c r="T109" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U109" s="6">
+        <v>30211</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A110" s="9">
         <v>14</v>
       </c>
@@ -11775,8 +12103,11 @@
       <c r="T110" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U110" s="6">
+        <v>30212</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A111" s="9">
         <v>14</v>
       </c>
@@ -11831,8 +12162,11 @@
       <c r="T111" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U111" s="6">
+        <v>30213</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A112" s="9">
         <v>14</v>
       </c>
@@ -11887,8 +12221,11 @@
       <c r="T112" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U112" s="6">
+        <v>30214</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A113" s="9">
         <v>14</v>
       </c>
@@ -11943,8 +12280,11 @@
       <c r="T113" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U113" s="6">
+        <v>30215</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A114" s="9">
         <v>14</v>
       </c>
@@ -11999,8 +12339,11 @@
       <c r="T114" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U114" s="6">
+        <v>30216</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A115" s="9">
         <v>14</v>
       </c>
@@ -12055,8 +12398,11 @@
       <c r="T115" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U115" s="6">
+        <v>30217</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A116" s="9">
         <v>14</v>
       </c>
@@ -12111,8 +12457,11 @@
       <c r="T116" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U116" s="6">
+        <v>30218</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A117" s="9">
         <v>14</v>
       </c>
@@ -12167,8 +12516,11 @@
       <c r="T117" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U117" s="6">
+        <v>30219</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A118" s="9">
         <v>14</v>
       </c>
@@ -12223,8 +12575,11 @@
       <c r="T118" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U118" s="6">
+        <v>30220</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A119" s="9">
         <v>14</v>
       </c>
@@ -12279,8 +12634,11 @@
       <c r="T119" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U119" s="6">
+        <v>30221</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A120" s="9">
         <v>14</v>
       </c>
@@ -12335,8 +12693,11 @@
       <c r="T120" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U120" s="6">
+        <v>30222</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A121" s="9">
         <v>14</v>
       </c>
@@ -12391,8 +12752,11 @@
       <c r="T121" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U121" s="6">
+        <v>30223</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A122" s="9">
         <v>14</v>
       </c>
@@ -12447,8 +12811,11 @@
       <c r="T122" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U122" s="6">
+        <v>30224</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A123" s="9">
         <v>14</v>
       </c>
@@ -12503,8 +12870,11 @@
       <c r="T123" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U123" s="6">
+        <v>30225</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A124" s="9">
         <v>14</v>
       </c>
@@ -12559,8 +12929,11 @@
       <c r="T124" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U124" s="6">
+        <v>30226</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A125" s="9">
         <v>14</v>
       </c>
@@ -12615,8 +12988,11 @@
       <c r="T125" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U125" s="6">
+        <v>30227</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A126" s="9">
         <v>14</v>
       </c>
@@ -12671,8 +13047,11 @@
       <c r="T126" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U126" s="6">
+        <v>30228</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A127" s="9">
         <v>14</v>
       </c>
@@ -12727,8 +13106,11 @@
       <c r="T127" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U127" s="6">
+        <v>30229</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A128" s="9">
         <v>14</v>
       </c>
@@ -12783,8 +13165,11 @@
       <c r="T128" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U128" s="6">
+        <v>30230</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A129" s="9">
         <v>14</v>
       </c>
@@ -12839,8 +13224,11 @@
       <c r="T129" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U129" s="6">
+        <v>30231</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A130" s="9">
         <v>14</v>
       </c>
@@ -12895,8 +13283,11 @@
       <c r="T130" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U130" s="6">
+        <v>30232</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A131" s="9">
         <v>14</v>
       </c>
@@ -12951,8 +13342,11 @@
       <c r="T131" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U131" s="6">
+        <v>30233</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A132" s="9">
         <v>14</v>
       </c>
@@ -13007,8 +13401,11 @@
       <c r="T132" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U132" s="6">
+        <v>30234</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A133" s="9">
         <v>14</v>
       </c>
@@ -13063,8 +13460,11 @@
       <c r="T133" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U133" s="6">
+        <v>30235</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A134" s="9">
         <v>14</v>
       </c>
@@ -13119,8 +13519,11 @@
       <c r="T134" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U134" s="6">
+        <v>30236</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A135" s="9">
         <v>14</v>
       </c>
@@ -13175,8 +13578,11 @@
       <c r="T135" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U135" s="6">
+        <v>30237</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A136" s="9">
         <v>14</v>
       </c>
@@ -13231,8 +13637,11 @@
       <c r="T136" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U136" s="6">
+        <v>30238</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A137" s="9">
         <v>14</v>
       </c>
@@ -13287,8 +13696,11 @@
       <c r="T137" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U137" s="6">
+        <v>30239</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A138" s="9">
         <v>14</v>
       </c>
@@ -13343,8 +13755,11 @@
       <c r="T138" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U138" s="6">
+        <v>30240</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A139" s="9">
         <v>14</v>
       </c>
@@ -13399,8 +13814,11 @@
       <c r="T139" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U139" s="6">
+        <v>30241</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A140" s="9">
         <v>14</v>
       </c>
@@ -13455,8 +13873,11 @@
       <c r="T140" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U140" s="6">
+        <v>30242</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A141" s="9">
         <v>14</v>
       </c>
@@ -13515,8 +13936,11 @@
       <c r="T141" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U141" s="6">
+        <v>30243</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A142" s="9">
         <v>14</v>
       </c>
@@ -13575,8 +13999,11 @@
       <c r="T142" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U142" s="6">
+        <v>30243</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A143" s="9">
         <v>15</v>
       </c>
@@ -13629,8 +14056,11 @@
       <c r="T143" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U143" s="6">
+        <v>28831</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A144" s="9">
         <v>16</v>
       </c>
@@ -13683,8 +14113,11 @@
       <c r="T144" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U144" s="6">
+        <v>30129</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A145" s="9">
         <v>16</v>
       </c>
@@ -13737,8 +14170,11 @@
       <c r="T145" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U145" s="6">
+        <v>30129</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A146" s="9">
         <v>16</v>
       </c>
@@ -13791,8 +14227,11 @@
       <c r="T146" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U146" s="6">
+        <v>30129</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A147" s="9">
         <v>17</v>
       </c>
@@ -13847,8 +14286,11 @@
       <c r="T147" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U147" s="6">
+        <v>29408</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A148" s="9">
         <v>17</v>
       </c>
@@ -13903,8 +14345,11 @@
       <c r="T148" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U148" s="6">
+        <v>29409</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A149" s="9">
         <v>18</v>
       </c>
@@ -13933,8 +14378,11 @@
       <c r="T149" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U149" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A150" s="9">
         <v>19</v>
       </c>
@@ -13989,8 +14437,11 @@
       <c r="T150" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U150" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A151" s="9">
         <v>19</v>
       </c>
@@ -14045,8 +14496,11 @@
       <c r="T151" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U151" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A152" s="9">
         <v>19</v>
       </c>
@@ -14101,8 +14555,11 @@
       <c r="T152" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U152" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A153" s="9">
         <v>19</v>
       </c>
@@ -14157,8 +14614,11 @@
       <c r="T153" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U153" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A154" s="9">
         <v>19</v>
       </c>
@@ -14213,8 +14673,11 @@
       <c r="T154" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U154" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A155" s="9">
         <v>19</v>
       </c>
@@ -14269,8 +14732,11 @@
       <c r="T155" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U155" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A156" s="9">
         <v>19</v>
       </c>
@@ -14329,8 +14795,11 @@
       <c r="T156" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U156" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A157" s="9">
         <v>19</v>
       </c>
@@ -14389,8 +14858,11 @@
       <c r="T157" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U157" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A158" s="9">
         <v>19</v>
       </c>
@@ -14449,8 +14921,11 @@
       <c r="T158" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U158" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A159" s="9">
         <v>19</v>
       </c>
@@ -14509,8 +14984,11 @@
       <c r="T159" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U159" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A160" s="9">
         <v>19</v>
       </c>
@@ -14569,8 +15047,11 @@
       <c r="T160" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U160" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A161" s="9">
         <v>19</v>
       </c>
@@ -14629,8 +15110,11 @@
       <c r="T161" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U161" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A162" s="9">
         <v>19</v>
       </c>
@@ -14689,8 +15173,11 @@
       <c r="T162" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U162" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A163" s="9">
         <v>19</v>
       </c>
@@ -14749,8 +15236,11 @@
       <c r="T163" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U163" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A164" s="9">
         <v>19</v>
       </c>
@@ -14809,8 +15299,11 @@
       <c r="T164" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U164" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A165" s="9">
         <v>19</v>
       </c>
@@ -14869,8 +15362,11 @@
       <c r="T165" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U165" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A166" s="9">
         <v>19</v>
       </c>
@@ -14929,8 +15425,11 @@
       <c r="T166" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U166" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A167" s="9">
         <v>19</v>
       </c>
@@ -14989,8 +15488,11 @@
       <c r="T167" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U167" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A168" s="9">
         <v>19</v>
       </c>
@@ -15049,8 +15551,11 @@
       <c r="T168" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U168" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A169" s="9">
         <v>19</v>
       </c>
@@ -15109,8 +15614,11 @@
       <c r="T169" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U169" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A170" s="9">
         <v>19</v>
       </c>
@@ -15169,8 +15677,11 @@
       <c r="T170" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U170" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A171" s="9">
         <v>19</v>
       </c>
@@ -15229,8 +15740,11 @@
       <c r="T171" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U171" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A172" s="9">
         <v>19</v>
       </c>
@@ -15289,8 +15803,11 @@
       <c r="T172" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U172" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A173" s="9">
         <v>19</v>
       </c>
@@ -15349,8 +15866,11 @@
       <c r="T173" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U173" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A174" s="9">
         <v>19</v>
       </c>
@@ -15409,8 +15929,11 @@
       <c r="T174" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U174" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A175" s="9">
         <v>19</v>
       </c>
@@ -15469,8 +15992,11 @@
       <c r="T175" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U175" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A176" s="9">
         <v>20</v>
       </c>
@@ -15499,8 +16025,11 @@
       <c r="T176" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U176" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A177" s="9">
         <v>21</v>
       </c>
@@ -15529,8 +16058,11 @@
       <c r="T177" s="3" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U177" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A178" s="9">
         <v>22</v>
       </c>
@@ -15559,8 +16091,11 @@
       <c r="T178" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U178" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A179" s="9">
         <v>23</v>
       </c>
@@ -15589,8 +16124,11 @@
       <c r="T179" s="3" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U179" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A180" s="9">
         <v>24</v>
       </c>
@@ -15643,8 +16181,11 @@
       <c r="T180" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U180" s="6">
+        <v>29324</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A181" s="9">
         <v>24</v>
       </c>
@@ -15697,8 +16238,11 @@
       <c r="T181" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U181" s="6">
+        <v>29325</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A182" s="9">
         <v>24</v>
       </c>
@@ -15751,8 +16295,11 @@
       <c r="T182" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U182" s="6">
+        <v>29326</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A183" s="9">
         <v>24</v>
       </c>
@@ -15805,8 +16352,11 @@
       <c r="T183" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U183" s="6">
+        <v>29327</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A184" s="9">
         <v>24</v>
       </c>
@@ -15859,8 +16409,11 @@
       <c r="T184" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U184" s="6">
+        <v>29328</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A185" s="9">
         <v>24</v>
       </c>
@@ -15913,8 +16466,11 @@
       <c r="T185" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U185" s="6">
+        <v>29329</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A186" s="9">
         <v>24</v>
       </c>
@@ -15967,8 +16523,11 @@
       <c r="T186" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U186" s="6">
+        <v>29330</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A187" s="9">
         <v>25</v>
       </c>
@@ -16023,8 +16582,11 @@
       <c r="T187" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U187" s="6">
+        <v>30075</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A188" s="9">
         <v>26</v>
       </c>
@@ -16053,8 +16615,11 @@
       <c r="T188" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U188" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A189" s="9">
         <v>27</v>
       </c>
@@ -16109,8 +16674,11 @@
       <c r="T189" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U189" s="6">
+        <v>27518</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A190" s="9">
         <v>28</v>
       </c>
@@ -16165,8 +16733,11 @@
       <c r="T190" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U190" s="6">
+        <v>28945</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A191" s="9">
         <v>28</v>
       </c>
@@ -16221,8 +16792,11 @@
       <c r="T191" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U191" s="6">
+        <v>28946</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A192" s="9">
         <v>28</v>
       </c>
@@ -16277,8 +16851,11 @@
       <c r="T192" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U192" s="6">
+        <v>28947</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A193" s="9">
         <v>29</v>
       </c>
@@ -16331,8 +16908,11 @@
       <c r="T193" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U193" s="6">
+        <v>29383</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A194" s="9">
         <v>29</v>
       </c>
@@ -16385,8 +16965,11 @@
       <c r="T194" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U194" s="6">
+        <v>29384</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A195" s="9">
         <v>29</v>
       </c>
@@ -16439,8 +17022,11 @@
       <c r="T195" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U195" s="6">
+        <v>29385</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A196" s="9">
         <v>30</v>
       </c>
@@ -16493,8 +17079,11 @@
       <c r="T196" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U196" s="6">
+        <v>28824</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A197" s="9">
         <v>30</v>
       </c>
@@ -16547,8 +17136,11 @@
       <c r="T197" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U197" s="6">
+        <v>28825</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A198" s="9">
         <v>31</v>
       </c>
@@ -16601,8 +17193,11 @@
       <c r="T198" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U198" s="6">
+        <v>29708</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A199" s="9">
         <v>32</v>
       </c>
@@ -16631,8 +17226,11 @@
       <c r="T199" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U199" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A200" s="9">
         <v>33</v>
       </c>
@@ -16661,8 +17259,11 @@
       <c r="T200" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U200" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A201" s="9">
         <v>34</v>
       </c>
@@ -16715,8 +17316,11 @@
       <c r="T201" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U201" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A202" s="9">
         <v>35</v>
       </c>
@@ -16771,8 +17375,11 @@
       <c r="T202" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U202" s="6">
+        <v>29290</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A203" s="9">
         <v>35</v>
       </c>
@@ -16827,8 +17434,11 @@
       <c r="T203" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U203" s="6">
+        <v>29291</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A204" s="9">
         <v>35</v>
       </c>
@@ -16883,8 +17493,11 @@
       <c r="T204" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U204" s="6">
+        <v>29292</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A205" s="9">
         <v>35</v>
       </c>
@@ -16943,8 +17556,11 @@
       <c r="T205" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U205" s="6">
+        <v>29293</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A206" s="9">
         <v>35</v>
       </c>
@@ -17003,8 +17619,11 @@
       <c r="T206" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U206" s="6">
+        <v>29293</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A207" s="9">
         <v>35</v>
       </c>
@@ -17059,8 +17678,11 @@
       <c r="T207" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U207" s="6">
+        <v>29294</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A208" s="9">
         <v>36</v>
       </c>
@@ -17089,8 +17711,11 @@
       <c r="T208" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U208" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A209" s="9">
         <v>37</v>
       </c>
@@ -17143,8 +17768,11 @@
       <c r="T209" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U209" s="6">
+        <v>30270</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A210" s="9">
         <v>37</v>
       </c>
@@ -17197,8 +17825,11 @@
       <c r="T210" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U210" s="6">
+        <v>30271</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A211" s="9">
         <v>38</v>
       </c>
@@ -17227,8 +17858,11 @@
       <c r="T211" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U211" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A212" s="9">
         <v>39</v>
       </c>
@@ -17257,8 +17891,11 @@
       <c r="T212" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U212" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A213" s="9">
         <v>40</v>
       </c>
@@ -17313,8 +17950,11 @@
       <c r="T213" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U213" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A214" s="9">
         <v>40</v>
       </c>
@@ -17373,8 +18013,11 @@
       <c r="T214" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U214" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A215" s="9">
         <v>40</v>
       </c>
@@ -17433,8 +18076,11 @@
       <c r="T215" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U215" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A216" s="9">
         <v>40</v>
       </c>
@@ -17493,8 +18139,11 @@
       <c r="T216" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U216" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A217" s="9">
         <v>40</v>
       </c>
@@ -17549,8 +18198,11 @@
       <c r="T217" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U217" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A218" s="9">
         <v>40</v>
       </c>
@@ -17605,8 +18257,11 @@
       <c r="T218" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U218" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A219" s="9">
         <v>40</v>
       </c>
@@ -17665,8 +18320,11 @@
       <c r="T219" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U219" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A220" s="9">
         <v>40</v>
       </c>
@@ -17725,8 +18383,11 @@
       <c r="T220" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U220" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A221" s="9">
         <v>40</v>
       </c>
@@ -17781,8 +18442,11 @@
       <c r="T221" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U221" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A222" s="9">
         <v>41</v>
       </c>
@@ -17837,8 +18501,11 @@
       <c r="T222" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U222" s="6">
+        <v>29415</v>
+      </c>
+    </row>
+    <row r="223" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A223" s="9">
         <v>42</v>
       </c>
@@ -17891,8 +18558,11 @@
       <c r="T223" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U223" s="6">
+        <v>28882</v>
+      </c>
+    </row>
+    <row r="224" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A224" s="9">
         <v>42</v>
       </c>
@@ -17945,8 +18615,11 @@
       <c r="T224" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U224" s="6">
+        <v>28883</v>
+      </c>
+    </row>
+    <row r="225" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A225" s="9">
         <v>42</v>
       </c>
@@ -17999,8 +18672,11 @@
       <c r="T225" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U225" s="6">
+        <v>28884</v>
+      </c>
+    </row>
+    <row r="226" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A226" s="9">
         <v>42</v>
       </c>
@@ -18053,8 +18729,11 @@
       <c r="T226" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U226" s="6">
+        <v>28885</v>
+      </c>
+    </row>
+    <row r="227" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A227" s="9">
         <v>42</v>
       </c>
@@ -18107,8 +18786,11 @@
       <c r="T227" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U227" s="6">
+        <v>28886</v>
+      </c>
+    </row>
+    <row r="228" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A228" s="9">
         <v>43</v>
       </c>
@@ -18137,8 +18819,11 @@
       <c r="T228" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U228" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="229" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A229" s="9">
         <v>44</v>
       </c>
@@ -18167,8 +18852,11 @@
       <c r="T229" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U229" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="230" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A230" s="9">
         <v>45</v>
       </c>
@@ -18223,8 +18911,11 @@
       <c r="T230" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U230" s="6">
+        <v>30113</v>
+      </c>
+    </row>
+    <row r="231" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A231" s="9">
         <v>46</v>
       </c>
@@ -18277,8 +18968,11 @@
       <c r="T231" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U231" s="6">
+        <v>28907</v>
+      </c>
+    </row>
+    <row r="232" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A232" s="9">
         <v>47</v>
       </c>
@@ -18333,8 +19027,11 @@
       <c r="T232" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U232" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A233" s="9">
         <v>48</v>
       </c>
@@ -18389,8 +19086,11 @@
       <c r="T233" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U233" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A234" s="9">
         <v>49</v>
       </c>
@@ -18419,8 +19119,11 @@
       <c r="T234" s="3" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U234" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="235" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A235" s="9">
         <v>50</v>
       </c>
@@ -18473,8 +19176,11 @@
       <c r="T235" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U235" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A236" s="9">
         <v>50</v>
       </c>
@@ -18527,8 +19233,11 @@
       <c r="T236" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U236" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A237" s="9">
         <v>50</v>
       </c>
@@ -18581,8 +19290,11 @@
       <c r="T237" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U237" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A238" s="9">
         <v>50</v>
       </c>
@@ -18635,8 +19347,11 @@
       <c r="T238" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U238" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A239" s="9">
         <v>50</v>
       </c>
@@ -18689,8 +19404,11 @@
       <c r="T239" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U239" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A240" s="9">
         <v>50</v>
       </c>
@@ -18743,8 +19461,11 @@
       <c r="T240" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U240" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A241" s="9">
         <v>50</v>
       </c>
@@ -18797,8 +19518,11 @@
       <c r="T241" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U241" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A242" s="9">
         <v>50</v>
       </c>
@@ -18851,8 +19575,11 @@
       <c r="T242" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U242" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A243" s="9">
         <v>50</v>
       </c>
@@ -18905,8 +19632,11 @@
       <c r="T243" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U243" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A244" s="9">
         <v>50</v>
       </c>
@@ -18959,8 +19689,11 @@
       <c r="T244" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U244" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A245" s="9">
         <v>51</v>
       </c>
@@ -19013,8 +19746,11 @@
       <c r="T245" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U245" s="6">
+        <v>29189</v>
+      </c>
+    </row>
+    <row r="246" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A246" s="9">
         <v>51</v>
       </c>
@@ -19067,8 +19803,11 @@
       <c r="T246" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U246" s="6">
+        <v>29190</v>
+      </c>
+    </row>
+    <row r="247" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A247" s="9">
         <v>51</v>
       </c>
@@ -19121,8 +19860,11 @@
       <c r="T247" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U247" s="6">
+        <v>29191</v>
+      </c>
+    </row>
+    <row r="248" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A248" s="9">
         <v>52</v>
       </c>
@@ -19175,8 +19917,11 @@
       <c r="T248" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U248" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A249" s="9">
         <v>53</v>
       </c>
@@ -19229,8 +19974,11 @@
       <c r="T249" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U249" s="6">
+        <v>29315</v>
+      </c>
+    </row>
+    <row r="250" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A250" s="9">
         <v>53</v>
       </c>
@@ -19283,8 +20031,11 @@
       <c r="T250" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U250" s="6">
+        <v>29316</v>
+      </c>
+    </row>
+    <row r="251" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A251" s="9">
         <v>53</v>
       </c>
@@ -19337,8 +20088,11 @@
       <c r="T251" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U251" s="6">
+        <v>29317</v>
+      </c>
+    </row>
+    <row r="252" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A252" s="9">
         <v>53</v>
       </c>
@@ -19391,8 +20145,11 @@
       <c r="T252" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U252" s="6">
+        <v>29318</v>
+      </c>
+    </row>
+    <row r="253" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A253" s="9">
         <v>53</v>
       </c>
@@ -19445,8 +20202,11 @@
       <c r="T253" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U253" s="6">
+        <v>29319</v>
+      </c>
+    </row>
+    <row r="254" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A254" s="9">
         <v>53</v>
       </c>
@@ -19499,8 +20259,11 @@
       <c r="T254" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U254" s="6">
+        <v>29320</v>
+      </c>
+    </row>
+    <row r="255" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A255" s="9">
         <v>53</v>
       </c>
@@ -19553,8 +20316,11 @@
       <c r="T255" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U255" s="6">
+        <v>29321</v>
+      </c>
+    </row>
+    <row r="256" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A256" s="9">
         <v>53</v>
       </c>
@@ -19611,8 +20377,11 @@
       <c r="T256" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U256" s="6">
+        <v>29322</v>
+      </c>
+    </row>
+    <row r="257" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A257" s="9">
         <v>53</v>
       </c>
@@ -19669,8 +20438,11 @@
       <c r="T257" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U257" s="6">
+        <v>29322</v>
+      </c>
+    </row>
+    <row r="258" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A258" s="9">
         <v>53</v>
       </c>
@@ -19723,8 +20495,11 @@
       <c r="T258" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U258" s="6">
+        <v>29323</v>
+      </c>
+    </row>
+    <row r="259" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A259" s="9">
         <v>54</v>
       </c>
@@ -19779,8 +20554,11 @@
       <c r="T259" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U259" s="6">
+        <v>28736</v>
+      </c>
+    </row>
+    <row r="260" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A260" s="9">
         <v>54</v>
       </c>
@@ -19839,8 +20617,11 @@
       <c r="T260" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U260" s="6">
+        <v>28737</v>
+      </c>
+    </row>
+    <row r="261" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A261" s="9">
         <v>54</v>
       </c>
@@ -19899,8 +20680,11 @@
       <c r="T261" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U261" s="6">
+        <v>28737</v>
+      </c>
+    </row>
+    <row r="262" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A262" s="9">
         <v>55</v>
       </c>
@@ -19929,8 +20713,11 @@
       <c r="T262" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U262" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="263" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A263" s="9">
         <v>56</v>
       </c>
@@ -19959,8 +20746,11 @@
       <c r="T263" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U263" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="264" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A264" s="9">
         <v>57</v>
       </c>
@@ -20015,8 +20805,11 @@
       <c r="T264" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U264" s="6">
+        <v>28696</v>
+      </c>
+    </row>
+    <row r="265" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A265" s="9">
         <v>57</v>
       </c>
@@ -20071,8 +20864,11 @@
       <c r="T265" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U265" s="6">
+        <v>28697</v>
+      </c>
+    </row>
+    <row r="266" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A266" s="9">
         <v>57</v>
       </c>
@@ -20127,8 +20923,11 @@
       <c r="T266" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U266" s="6">
+        <v>28698</v>
+      </c>
+    </row>
+    <row r="267" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A267" s="9">
         <v>57</v>
       </c>
@@ -20183,8 +20982,11 @@
       <c r="T267" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U267" s="6">
+        <v>28699</v>
+      </c>
+    </row>
+    <row r="268" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A268" s="9">
         <v>57</v>
       </c>
@@ -20239,8 +21041,11 @@
       <c r="T268" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U268" s="6">
+        <v>28700</v>
+      </c>
+    </row>
+    <row r="269" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A269" s="9">
         <v>57</v>
       </c>
@@ -20295,8 +21100,11 @@
       <c r="T269" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U269" s="6">
+        <v>28701</v>
+      </c>
+    </row>
+    <row r="270" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A270" s="9">
         <v>57</v>
       </c>
@@ -20351,8 +21159,11 @@
       <c r="T270" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U270" s="6">
+        <v>28702</v>
+      </c>
+    </row>
+    <row r="271" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A271" s="9">
         <v>57</v>
       </c>
@@ -20407,8 +21218,11 @@
       <c r="T271" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U271" s="6">
+        <v>28703</v>
+      </c>
+    </row>
+    <row r="272" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A272" s="9">
         <v>57</v>
       </c>
@@ -20463,8 +21277,11 @@
       <c r="T272" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U272" s="6">
+        <v>28704</v>
+      </c>
+    </row>
+    <row r="273" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A273" s="9">
         <v>57</v>
       </c>
@@ -20519,8 +21336,11 @@
       <c r="T273" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U273" s="6">
+        <v>28705</v>
+      </c>
+    </row>
+    <row r="274" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A274" s="9">
         <v>57</v>
       </c>
@@ -20575,8 +21395,11 @@
       <c r="T274" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U274" s="6">
+        <v>28706</v>
+      </c>
+    </row>
+    <row r="275" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A275" s="9">
         <v>57</v>
       </c>
@@ -20631,8 +21454,11 @@
       <c r="T275" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U275" s="6">
+        <v>28707</v>
+      </c>
+    </row>
+    <row r="276" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A276" s="9">
         <v>57</v>
       </c>
@@ -20687,8 +21513,11 @@
       <c r="T276" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U276" s="6">
+        <v>28708</v>
+      </c>
+    </row>
+    <row r="277" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A277" s="9">
         <v>57</v>
       </c>
@@ -20743,8 +21572,11 @@
       <c r="T277" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U277" s="6">
+        <v>28709</v>
+      </c>
+    </row>
+    <row r="278" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A278" s="9">
         <v>57</v>
       </c>
@@ -20799,8 +21631,11 @@
       <c r="T278" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U278" s="6">
+        <v>28710</v>
+      </c>
+    </row>
+    <row r="279" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A279" s="9">
         <v>57</v>
       </c>
@@ -20855,8 +21690,11 @@
       <c r="T279" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U279" s="6">
+        <v>28711</v>
+      </c>
+    </row>
+    <row r="280" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A280" s="9">
         <v>57</v>
       </c>
@@ -20911,8 +21749,11 @@
       <c r="T280" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U280" s="6">
+        <v>28712</v>
+      </c>
+    </row>
+    <row r="281" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A281" s="9">
         <v>57</v>
       </c>
@@ -20967,8 +21808,11 @@
       <c r="T281" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U281" s="6">
+        <v>28713</v>
+      </c>
+    </row>
+    <row r="282" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A282" s="9">
         <v>57</v>
       </c>
@@ -21023,8 +21867,11 @@
       <c r="T282" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U282" s="6">
+        <v>28714</v>
+      </c>
+    </row>
+    <row r="283" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A283" s="9">
         <v>57</v>
       </c>
@@ -21079,8 +21926,11 @@
       <c r="T283" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U283" s="6">
+        <v>28715</v>
+      </c>
+    </row>
+    <row r="284" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A284" s="9">
         <v>57</v>
       </c>
@@ -21135,8 +21985,11 @@
       <c r="T284" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U284" s="6">
+        <v>28716</v>
+      </c>
+    </row>
+    <row r="285" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A285" s="9">
         <v>57</v>
       </c>
@@ -21191,8 +22044,11 @@
       <c r="T285" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U285" s="6">
+        <v>28717</v>
+      </c>
+    </row>
+    <row r="286" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A286" s="9">
         <v>57</v>
       </c>
@@ -21247,8 +22103,11 @@
       <c r="T286" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U286" s="6">
+        <v>28718</v>
+      </c>
+    </row>
+    <row r="287" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A287" s="9">
         <v>57</v>
       </c>
@@ -21303,8 +22162,11 @@
       <c r="T287" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U287" s="6">
+        <v>28719</v>
+      </c>
+    </row>
+    <row r="288" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A288" s="9">
         <v>57</v>
       </c>
@@ -21359,8 +22221,11 @@
       <c r="T288" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U288" s="6">
+        <v>28720</v>
+      </c>
+    </row>
+    <row r="289" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A289" s="9">
         <v>57</v>
       </c>
@@ -21415,8 +22280,11 @@
       <c r="T289" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U289" s="6">
+        <v>28721</v>
+      </c>
+    </row>
+    <row r="290" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A290" s="9">
         <v>57</v>
       </c>
@@ -21471,8 +22339,11 @@
       <c r="T290" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U290" s="6">
+        <v>28722</v>
+      </c>
+    </row>
+    <row r="291" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A291" s="9">
         <v>57</v>
       </c>
@@ -21527,8 +22398,11 @@
       <c r="T291" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U291" s="6">
+        <v>28723</v>
+      </c>
+    </row>
+    <row r="292" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A292" s="9">
         <v>58</v>
       </c>
@@ -21587,8 +22461,11 @@
       <c r="T292" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U292" s="6">
+        <v>29989</v>
+      </c>
+    </row>
+    <row r="293" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A293" s="9">
         <v>58</v>
       </c>
@@ -21647,8 +22524,11 @@
       <c r="T293" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U293" s="6">
+        <v>29989</v>
+      </c>
+    </row>
+    <row r="294" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A294" s="9">
         <v>58</v>
       </c>
@@ -21703,8 +22583,11 @@
       <c r="T294" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U294" s="6">
+        <v>29990</v>
+      </c>
+    </row>
+    <row r="295" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A295" s="9">
         <v>59</v>
       </c>
@@ -21761,8 +22644,11 @@
       <c r="T295" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U295" s="6">
+        <v>29308</v>
+      </c>
+    </row>
+    <row r="296" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A296" s="9">
         <v>59</v>
       </c>
@@ -21819,8 +22705,11 @@
       <c r="T296" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U296" s="6">
+        <v>29308</v>
+      </c>
+    </row>
+    <row r="297" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A297" s="9">
         <v>59</v>
       </c>
@@ -21877,8 +22766,11 @@
       <c r="T297" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U297" s="6">
+        <v>29309</v>
+      </c>
+    </row>
+    <row r="298" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A298" s="9">
         <v>59</v>
       </c>
@@ -21935,8 +22827,11 @@
       <c r="T298" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U298" s="6">
+        <v>29309</v>
+      </c>
+    </row>
+    <row r="299" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A299" s="9">
         <v>59</v>
       </c>
@@ -21989,8 +22884,11 @@
       <c r="T299" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U299" s="6">
+        <v>29310</v>
+      </c>
+    </row>
+    <row r="300" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A300" s="9">
         <v>60</v>
       </c>
@@ -22019,8 +22917,11 @@
       <c r="T300" s="3" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U300" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="301" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A301" s="9">
         <v>61</v>
       </c>
@@ -22049,8 +22950,11 @@
       <c r="T301" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U301" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="302" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A302" s="9">
         <v>62</v>
       </c>
@@ -22079,8 +22983,11 @@
       <c r="T302" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U302" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="303" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A303" s="9">
         <v>63</v>
       </c>
@@ -22135,8 +23042,11 @@
       <c r="T303" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U303" s="6">
+        <v>30099</v>
+      </c>
+    </row>
+    <row r="304" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A304" s="9">
         <v>63</v>
       </c>
@@ -22191,8 +23101,11 @@
       <c r="T304" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U304" s="6">
+        <v>30100</v>
+      </c>
+    </row>
+    <row r="305" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A305" s="9">
         <v>63</v>
       </c>
@@ -22247,8 +23160,11 @@
       <c r="T305" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U305" s="6">
+        <v>30101</v>
+      </c>
+    </row>
+    <row r="306" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A306" s="9">
         <v>64</v>
       </c>
@@ -22277,8 +23193,11 @@
       <c r="T306" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U306" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="307" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A307" s="9">
         <v>65</v>
       </c>
@@ -22333,8 +23252,11 @@
       <c r="T307" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U307" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A308" s="9">
         <v>65</v>
       </c>
@@ -22389,8 +23311,11 @@
       <c r="T308" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U308" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A309" s="9">
         <v>65</v>
       </c>
@@ -22445,8 +23370,11 @@
       <c r="T309" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U309" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A310" s="9">
         <v>65</v>
       </c>
@@ -22501,8 +23429,11 @@
       <c r="T310" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U310" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A311" s="9">
         <v>65</v>
       </c>
@@ -22557,8 +23488,11 @@
       <c r="T311" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U311" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A312" s="9">
         <v>65</v>
       </c>
@@ -22613,8 +23547,11 @@
       <c r="T312" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U312" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A313" s="9">
         <v>65</v>
       </c>
@@ -22669,8 +23606,11 @@
       <c r="T313" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U313" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A314" s="9">
         <v>65</v>
       </c>
@@ -22725,8 +23665,11 @@
       <c r="T314" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U314" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A315" s="9">
         <v>65</v>
       </c>
@@ -22781,8 +23724,11 @@
       <c r="T315" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U315" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A316" s="9">
         <v>65</v>
       </c>
@@ -22837,8 +23783,11 @@
       <c r="T316" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U316" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A317" s="9">
         <v>65</v>
       </c>
@@ -22893,8 +23842,11 @@
       <c r="T317" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U317" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A318" s="9">
         <v>65</v>
       </c>
@@ -22949,8 +23901,11 @@
       <c r="T318" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U318" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A319" s="9">
         <v>65</v>
       </c>
@@ -23005,8 +23960,11 @@
       <c r="T319" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U319" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A320" s="9">
         <v>66</v>
       </c>
@@ -23035,8 +23993,11 @@
       <c r="T320" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U320" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="321" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A321" s="9">
         <v>67</v>
       </c>
@@ -23091,8 +24052,11 @@
       <c r="T321" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U321" s="6">
+        <v>28734</v>
+      </c>
+    </row>
+    <row r="322" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A322" s="9">
         <v>67</v>
       </c>
@@ -23147,8 +24111,11 @@
       <c r="T322" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U322" s="6">
+        <v>28735</v>
+      </c>
+    </row>
+    <row r="323" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A323" s="9">
         <v>68</v>
       </c>
@@ -23177,8 +24144,11 @@
       <c r="T323" s="3" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U323" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="324" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A324" s="9">
         <v>69</v>
       </c>
@@ -23233,8 +24203,11 @@
       <c r="T324" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U324" s="6">
+        <v>29105</v>
+      </c>
+    </row>
+    <row r="325" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A325" s="9">
         <v>69</v>
       </c>
@@ -23289,8 +24262,11 @@
       <c r="T325" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U325" s="6">
+        <v>29106</v>
+      </c>
+    </row>
+    <row r="326" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A326" s="9">
         <v>69</v>
       </c>
@@ -23345,8 +24321,11 @@
       <c r="T326" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U326" s="6">
+        <v>29107</v>
+      </c>
+    </row>
+    <row r="327" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A327" s="9">
         <v>69</v>
       </c>
@@ -23401,8 +24380,11 @@
       <c r="T327" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U327" s="6">
+        <v>29108</v>
+      </c>
+    </row>
+    <row r="328" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A328" s="9">
         <v>70</v>
       </c>
@@ -23455,8 +24437,11 @@
       <c r="T328" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U328" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A329" s="9">
         <v>70</v>
       </c>
@@ -23509,8 +24494,11 @@
       <c r="T329" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U329" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A330" s="9">
         <v>70</v>
       </c>
@@ -23563,8 +24551,11 @@
       <c r="T330" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U330" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A331" s="9">
         <v>70</v>
       </c>
@@ -23617,8 +24608,11 @@
       <c r="T331" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U331" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A332" s="9">
         <v>70</v>
       </c>
@@ -23671,8 +24665,11 @@
       <c r="T332" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U332" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A333" s="9">
         <v>70</v>
       </c>
@@ -23725,8 +24722,11 @@
       <c r="T333" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U333" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A334" s="9">
         <v>70</v>
       </c>
@@ -23779,8 +24779,11 @@
       <c r="T334" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U334" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A335" s="9">
         <v>70</v>
       </c>
@@ -23833,8 +24836,11 @@
       <c r="T335" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U335" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A336" s="9">
         <v>70</v>
       </c>
@@ -23887,8 +24893,11 @@
       <c r="T336" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U336" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A337" s="9">
         <v>70</v>
       </c>
@@ -23941,8 +24950,11 @@
       <c r="T337" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U337" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A338" s="9">
         <v>71</v>
       </c>
@@ -23997,8 +25009,11 @@
       <c r="T338" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U338" s="6">
+        <v>28585</v>
+      </c>
+    </row>
+    <row r="339" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A339" s="9">
         <v>71</v>
       </c>
@@ -24053,8 +25068,11 @@
       <c r="T339" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U339" s="6">
+        <v>28586</v>
+      </c>
+    </row>
+    <row r="340" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A340" s="9">
         <v>71</v>
       </c>
@@ -24109,8 +25127,11 @@
       <c r="T340" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U340" s="6">
+        <v>28587</v>
+      </c>
+    </row>
+    <row r="341" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A341" s="9">
         <v>72</v>
       </c>
@@ -24139,8 +25160,11 @@
       <c r="T341" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U341" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="342" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A342" s="9">
         <v>73</v>
       </c>
@@ -24169,8 +25193,11 @@
       <c r="T342" s="3" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U342" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="343" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A343" s="9">
         <v>74</v>
       </c>
@@ -24225,8 +25252,11 @@
       <c r="T343" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U343" s="6">
+        <v>30292</v>
+      </c>
+    </row>
+    <row r="344" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A344" s="9">
         <v>75</v>
       </c>
@@ -24281,8 +25311,11 @@
       <c r="T344" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U344" s="6">
+        <v>29877</v>
+      </c>
+    </row>
+    <row r="345" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A345" s="9">
         <v>75</v>
       </c>
@@ -24337,8 +25370,11 @@
       <c r="T345" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U345" s="6">
+        <v>29878</v>
+      </c>
+    </row>
+    <row r="346" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A346" s="9">
         <v>75</v>
       </c>
@@ -24393,8 +25429,11 @@
       <c r="T346" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U346" s="6">
+        <v>29879</v>
+      </c>
+    </row>
+    <row r="347" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A347" s="9">
         <v>75</v>
       </c>
@@ -24449,8 +25488,11 @@
       <c r="T347" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U347" s="6">
+        <v>29880</v>
+      </c>
+    </row>
+    <row r="348" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A348" s="9">
         <v>76</v>
       </c>
@@ -24479,8 +25521,11 @@
       <c r="T348" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U348" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="349" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A349" s="9">
         <v>77</v>
       </c>
@@ -24533,8 +25578,11 @@
       <c r="T349" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U349" s="6">
+        <v>29285</v>
+      </c>
+    </row>
+    <row r="350" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A350" s="26">
         <v>78</v>
       </c>
@@ -24589,8 +25637,11 @@
       <c r="T350" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U350" s="6">
+        <v>29582</v>
+      </c>
+    </row>
+    <row r="351" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A351" s="26">
         <v>78</v>
       </c>
@@ -24645,8 +25696,11 @@
       <c r="T351" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U351" s="6">
+        <v>29583</v>
+      </c>
+    </row>
+    <row r="352" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A352" s="26">
         <v>78</v>
       </c>
@@ -24701,8 +25755,11 @@
       <c r="T352" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U352" s="6">
+        <v>29584</v>
+      </c>
+    </row>
+    <row r="353" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A353" s="26">
         <v>78</v>
       </c>
@@ -24757,8 +25814,11 @@
       <c r="T353" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U353" s="6">
+        <v>29585</v>
+      </c>
+    </row>
+    <row r="354" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A354" s="9">
         <v>79</v>
       </c>
@@ -24813,8 +25873,11 @@
       <c r="T354" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U354" s="6">
+        <v>29754</v>
+      </c>
+    </row>
+    <row r="355" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A355" s="9">
         <v>79</v>
       </c>
@@ -24869,8 +25932,11 @@
       <c r="T355" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U355" s="6">
+        <v>29755</v>
+      </c>
+    </row>
+    <row r="356" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A356" s="9">
         <v>79</v>
       </c>
@@ -24925,8 +25991,11 @@
       <c r="T356" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U356" s="6">
+        <v>29756</v>
+      </c>
+    </row>
+    <row r="357" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A357" s="9">
         <v>79</v>
       </c>
@@ -24981,8 +26050,11 @@
       <c r="T357" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U357" s="6">
+        <v>29757</v>
+      </c>
+    </row>
+    <row r="358" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A358" s="9">
         <v>79</v>
       </c>
@@ -25037,8 +26109,11 @@
       <c r="T358" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U358" s="6">
+        <v>29758</v>
+      </c>
+    </row>
+    <row r="359" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A359" s="9">
         <v>79</v>
       </c>
@@ -25093,8 +26168,11 @@
       <c r="T359" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="360" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U359" s="6">
+        <v>29759</v>
+      </c>
+    </row>
+    <row r="360" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A360" s="9">
         <v>79</v>
       </c>
@@ -25149,8 +26227,11 @@
       <c r="T360" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="361" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U360" s="6">
+        <v>29760</v>
+      </c>
+    </row>
+    <row r="361" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A361" s="9">
         <v>79</v>
       </c>
@@ -25205,8 +26286,11 @@
       <c r="T361" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U361" s="6">
+        <v>29761</v>
+      </c>
+    </row>
+    <row r="362" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A362" s="9">
         <v>79</v>
       </c>
@@ -25261,8 +26345,11 @@
       <c r="T362" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="363" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U362" s="6">
+        <v>29762</v>
+      </c>
+    </row>
+    <row r="363" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A363" s="9">
         <v>79</v>
       </c>
@@ -25317,8 +26404,11 @@
       <c r="T363" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="364" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U363" s="6">
+        <v>29763</v>
+      </c>
+    </row>
+    <row r="364" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A364" s="9">
         <v>79</v>
       </c>
@@ -25373,8 +26463,11 @@
       <c r="T364" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U364" s="6">
+        <v>29764</v>
+      </c>
+    </row>
+    <row r="365" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A365" s="9">
         <v>79</v>
       </c>
@@ -25429,8 +26522,11 @@
       <c r="T365" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U365" s="6">
+        <v>29765</v>
+      </c>
+    </row>
+    <row r="366" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A366" s="9">
         <v>79</v>
       </c>
@@ -25485,8 +26581,11 @@
       <c r="T366" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U366" s="6">
+        <v>29766</v>
+      </c>
+    </row>
+    <row r="367" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A367" s="9">
         <v>80</v>
       </c>
@@ -25541,8 +26640,11 @@
       <c r="T367" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U367" s="6">
+        <v>30079</v>
+      </c>
+    </row>
+    <row r="368" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A368" s="9">
         <v>81</v>
       </c>
@@ -25597,8 +26699,11 @@
       <c r="T368" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="369" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U368" s="6">
+        <v>28997</v>
+      </c>
+    </row>
+    <row r="369" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A369" s="9">
         <v>81</v>
       </c>
@@ -25653,8 +26758,11 @@
       <c r="T369" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U369" s="6">
+        <v>28998</v>
+      </c>
+    </row>
+    <row r="370" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A370" s="9">
         <v>81</v>
       </c>
@@ -25709,8 +26817,11 @@
       <c r="T370" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U370" s="6">
+        <v>28999</v>
+      </c>
+    </row>
+    <row r="371" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A371" s="9">
         <v>81</v>
       </c>
@@ -25765,8 +26876,11 @@
       <c r="T371" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U371" s="6">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="372" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A372" s="9">
         <v>81</v>
       </c>
@@ -25821,8 +26935,11 @@
       <c r="T372" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="373" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U372" s="6">
+        <v>29001</v>
+      </c>
+    </row>
+    <row r="373" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A373" s="9">
         <v>82</v>
       </c>
@@ -25851,8 +26968,11 @@
       <c r="T373" s="3" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="374" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U373" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="374" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A374" s="9">
         <v>83</v>
       </c>
@@ -25881,8 +27001,11 @@
       <c r="T374" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="375" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U374" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="375" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A375" s="9">
         <v>84</v>
       </c>
@@ -25909,8 +27032,11 @@
       <c r="T375" s="3" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="376" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U375" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="376" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A376" s="9">
         <v>85</v>
       </c>
@@ -25963,8 +27089,11 @@
       <c r="T376" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="377" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U376" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A377" s="9">
         <v>86</v>
       </c>
@@ -26019,8 +27148,11 @@
       <c r="T377" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="378" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U377" s="6">
+        <v>28777</v>
+      </c>
+    </row>
+    <row r="378" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A378" s="9">
         <v>87</v>
       </c>
@@ -26075,8 +27207,11 @@
       <c r="T378" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="379" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U378" s="6">
+        <v>29360</v>
+      </c>
+    </row>
+    <row r="379" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A379" s="9">
         <v>87</v>
       </c>
@@ -26131,8 +27266,11 @@
       <c r="T379" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="380" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U379" s="6">
+        <v>29361</v>
+      </c>
+    </row>
+    <row r="380" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A380" s="9">
         <v>88</v>
       </c>
@@ -26159,8 +27297,11 @@
       <c r="T380" s="3" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="381" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U380" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="381" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A381" s="9">
         <v>89</v>
       </c>
@@ -26213,8 +27354,11 @@
       <c r="T381" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="382" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U381" s="6">
+        <v>28784</v>
+      </c>
+    </row>
+    <row r="382" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A382" s="9">
         <v>90</v>
       </c>
@@ -26269,8 +27413,11 @@
       <c r="T382" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="383" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U382" s="6">
+        <v>29767</v>
+      </c>
+    </row>
+    <row r="383" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A383" s="9">
         <v>90</v>
       </c>
@@ -26329,8 +27476,11 @@
       <c r="T383" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="384" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U383" s="6">
+        <v>29768</v>
+      </c>
+    </row>
+    <row r="384" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A384" s="9">
         <v>90</v>
       </c>
@@ -26389,8 +27539,11 @@
       <c r="T384" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="385" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U384" s="6">
+        <v>29768</v>
+      </c>
+    </row>
+    <row r="385" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A385" s="9">
         <v>90</v>
       </c>
@@ -26449,8 +27602,11 @@
       <c r="T385" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="386" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U385" s="6">
+        <v>29768</v>
+      </c>
+    </row>
+    <row r="386" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="9">
         <v>90</v>
       </c>
@@ -26505,8 +27661,11 @@
       <c r="T386" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="387" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U386" s="6">
+        <v>29769</v>
+      </c>
+    </row>
+    <row r="387" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A387" s="9">
         <v>90</v>
       </c>
@@ -26561,8 +27720,11 @@
       <c r="T387" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U387" s="6">
+        <v>29770</v>
+      </c>
+    </row>
+    <row r="388" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A388" s="9">
         <v>91</v>
       </c>
@@ -26589,8 +27751,11 @@
       <c r="T388" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U388" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="389" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A389" s="9">
         <v>92</v>
       </c>
@@ -26617,8 +27782,11 @@
       <c r="T389" s="3" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U389" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="390" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A390" s="9">
         <v>93</v>
       </c>
@@ -26673,8 +27841,11 @@
       <c r="T390" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U390" s="6">
+        <v>10172</v>
+      </c>
+    </row>
+    <row r="391" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A391" s="9">
         <v>94</v>
       </c>
@@ -26701,8 +27872,11 @@
       <c r="T391" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U391" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="392" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A392" s="9">
         <v>95</v>
       </c>
@@ -26729,8 +27903,11 @@
       <c r="T392" s="3" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U392" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="393" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A393" s="9">
         <v>96</v>
       </c>
@@ -26783,8 +27960,11 @@
       <c r="T393" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U393" s="6">
+        <v>29661</v>
+      </c>
+    </row>
+    <row r="394" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A394" s="9">
         <v>96</v>
       </c>
@@ -26837,8 +28017,11 @@
       <c r="T394" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U394" s="6">
+        <v>29662</v>
+      </c>
+    </row>
+    <row r="395" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A395" s="9">
         <v>97</v>
       </c>
@@ -26897,8 +28080,11 @@
       <c r="T395" s="3" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U395" s="6">
+        <v>15778</v>
+      </c>
+    </row>
+    <row r="396" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A396" s="9">
         <v>97</v>
       </c>
@@ -26957,9 +28143,12 @@
       <c r="T396" s="3" t="s">
         <v>788</v>
       </c>
+      <c r="U396" s="6">
+        <v>15778</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T396" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <autoFilter ref="A1:U396" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
